--- a/DragPrediction/Data/Uniform Grid_Line Distribution.xlsx
+++ b/DragPrediction/Data/Uniform Grid_Line Distribution.xlsx
@@ -125,18 +125,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -421,7 +421,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +434,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -443,82 +443,84 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="3">
         <v>0.88500000000000001</v>
       </c>
       <c r="C2" s="3">
         <v>1.1167</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <f>(B2/11)*(C2/11)</f>
         <v>8.1675991735537194E-3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="5">
         <v>10</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <f>((A4*B4)*2)-12</f>
         <v>188</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="F4" s="8">
-        <f>$B$2/A4</f>
+      <c r="D4" s="7">
+        <f>($B$2/B4)*($C$2/B4)</f>
+        <v>9.8827949999999998E-3</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F10" si="0">$B$2/A4</f>
         <v>8.8499999999999995E-2</v>
       </c>
-      <c r="G4" s="8">
-        <f>$C$2/B4</f>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:G10" si="1">$C$2/B4</f>
         <v>0.11167000000000001</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="6">
         <f>F4/2</f>
         <v>4.4249999999999998E-2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <f>(G4/2)+0.2347</f>
         <v>0.29053499999999999</v>
       </c>
@@ -530,22 +532,25 @@
       <c r="B5" s="1">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <f>((A5*B5)*2)-7</f>
         <v>155</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="7">
+        <f t="shared" ref="D5:D10" si="2">($B$2/B5)*($C$2/B5)</f>
+        <v>1.2200981481481481E-2</v>
+      </c>
+      <c r="E5" s="7"/>
       <c r="F5">
-        <f>$B$2/A5</f>
+        <f t="shared" si="0"/>
         <v>9.8333333333333328E-2</v>
       </c>
       <c r="G5">
-        <f>$C$2/B5</f>
+        <f t="shared" si="1"/>
         <v>0.12407777777777779</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H10" si="0">F5/2</f>
+        <f t="shared" ref="H5:H10" si="3">F5/2</f>
         <v>4.9166666666666664E-2</v>
       </c>
       <c r="I5">
@@ -560,26 +565,29 @@
       <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="9">
-        <f t="shared" ref="C6:C10" si="1">((A6*B6)*2)-7</f>
+      <c r="C6" s="7">
+        <f t="shared" ref="C6:C10" si="4">((A6*B6)*2)-7</f>
         <v>121</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="D6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.54418671875E-2</v>
+      </c>
+      <c r="E6" s="7"/>
       <c r="F6">
-        <f>$B$2/A6</f>
+        <f t="shared" si="0"/>
         <v>0.110625</v>
       </c>
       <c r="G6">
-        <f>$C$2/B6</f>
+        <f t="shared" si="1"/>
         <v>0.1395875</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.5312500000000001E-2</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I10" si="2">(G6/2)+0.2347</f>
+        <f t="shared" ref="I6:I10" si="5">(G6/2)+0.2347</f>
         <v>0.30449375000000001</v>
       </c>
     </row>
@@ -590,26 +598,29 @@
       <c r="B7" s="1">
         <v>7</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="7">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="2"/>
+        <v>2.0168969387755101E-2</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.12642857142857142</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>91</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7">
-        <f>$B$2/A7</f>
-        <v>0.12642857142857142</v>
-      </c>
-      <c r="G7">
-        <f>$C$2/B7</f>
         <v>0.15952857142857144</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>6.3214285714285709E-2</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3144642857142857</v>
       </c>
     </row>
@@ -620,26 +631,29 @@
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <f t="shared" si="2"/>
+        <v>2.7452208333333335E-2</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8">
-        <f>$B$2/A8</f>
-        <v>0.14749999999999999</v>
-      </c>
-      <c r="G8">
-        <f>$C$2/B8</f>
         <v>0.18611666666666668</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.3749999999999996E-2</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.32775833333333332</v>
       </c>
     </row>
@@ -650,26 +664,29 @@
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="7">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="2"/>
+        <v>3.9531179999999999E-2</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9">
-        <f>$B$2/A9</f>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="G9">
-        <f>$C$2/B9</f>
         <v>0.22334000000000001</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>8.8499999999999995E-2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.34637000000000001</v>
       </c>
     </row>
@@ -680,26 +697,29 @@
       <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="2"/>
+        <v>6.1767468749999999E-2</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.22125</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10">
-        <f>$B$2/A10</f>
-        <v>0.22125</v>
-      </c>
-      <c r="G10">
-        <f>$C$2/B10</f>
         <v>0.27917500000000001</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.110625</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3742875</v>
       </c>
     </row>

--- a/DragPrediction/Data/Uniform Grid_Line Distribution.xlsx
+++ b/DragPrediction/Data/Uniform Grid_Line Distribution.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windtunnel\Documents\GitHub\NU-Python\DragPrediction\Data\"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>No Of Points</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Width</t>
   </si>
@@ -66,6 +63,15 @@
   </si>
   <si>
     <t>Initial Value</t>
+  </si>
+  <si>
+    <t>Corrected Area</t>
+  </si>
+  <si>
+    <t>No of Boxes</t>
+  </si>
+  <si>
+    <t>Area N+1</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -130,6 +142,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -418,37 +436,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>12</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
       <c r="B2" s="3">
         <v>0.88500000000000001</v>
       </c>
@@ -456,277 +477,348 @@
         <v>1.1167</v>
       </c>
       <c r="D2" s="5">
-        <f>(B2/11)*(C2/11)</f>
+        <f>(B2*C2)</f>
+        <v>0.98827949999999998</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>30</v>
+      </c>
+      <c r="B4" s="8">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8">
+        <f>B4*A4</f>
+        <v>900</v>
+      </c>
+      <c r="D4">
+        <f>($B$2/(A4+1))*($C$2/(A4+1))</f>
+        <v>1.0283865764828305E-3</v>
+      </c>
+      <c r="E4">
+        <f>G4*H4</f>
+        <v>1.0980883333333335E-3</v>
+      </c>
+      <c r="G4">
+        <f>$B$2/A4</f>
+        <v>2.9500000000000002E-2</v>
+      </c>
+      <c r="H4">
+        <f>$C$2/B4</f>
+        <v>3.7223333333333337E-2</v>
+      </c>
+      <c r="I4">
+        <f>G4/2</f>
+        <v>1.4750000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <f>(H4/2)+0.2347</f>
+        <v>0.25331166666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9">
+        <f>B5*A5</f>
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f>($B$2/(A5+1))*($C$2/(A5+1))</f>
         <v>8.1675991735537194E-3</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E5">
+        <f t="shared" ref="E5:E11" si="0">G5*H5</f>
+        <v>9.8827949999999998E-3</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G11" si="1">$B$2/A5</f>
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f>$C$2/B5</f>
+        <v>0.11167000000000001</v>
+      </c>
+      <c r="I5" s="6">
+        <f>G5/2</f>
+        <v>4.4249999999999998E-2</v>
+      </c>
+      <c r="J5" s="6">
+        <f>(H5/2)+0.2347</f>
+        <v>0.29053499999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5">
-        <f>((A4*B4)*2)-12</f>
-        <v>188</v>
-      </c>
-      <c r="D4" s="7">
-        <f>($B$2/B4)*($C$2/B4)</f>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="8">
+        <f>B6*A6</f>
+        <v>81</v>
+      </c>
+      <c r="D6">
+        <f>($B$2/(A6+1))*($C$2/(A6+1))</f>
         <v>9.8827949999999998E-3</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F10" si="0">$B$2/A4</f>
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" ref="G4:G10" si="1">$C$2/B4</f>
-        <v>0.11167000000000001</v>
-      </c>
-      <c r="H4" s="6">
-        <f>F4/2</f>
-        <v>4.4249999999999998E-2</v>
-      </c>
-      <c r="I4" s="6">
-        <f>(G4/2)+0.2347</f>
-        <v>0.29053499999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7">
-        <f>((A5*B5)*2)-7</f>
-        <v>155</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" ref="D5:D10" si="2">($B$2/B5)*($C$2/B5)</f>
+      <c r="E6">
+        <f t="shared" si="0"/>
         <v>1.2200981481481481E-2</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>9.8333333333333328E-2</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>0.12407777777777779</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H10" si="3">F5/2</f>
-        <v>4.9166666666666664E-2</v>
-      </c>
-      <c r="I5">
-        <f>(G5/2)+0.2347</f>
-        <v>0.29673888888888889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>8</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C6:C10" si="4">((A6*B6)*2)-7</f>
-        <v>121</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="2"/>
-        <v>1.54418671875E-2</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6">
-        <f t="shared" si="0"/>
-        <v>0.110625</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.1395875</v>
+        <v>9.8333333333333328E-2</v>
       </c>
       <c r="H6">
-        <f t="shared" si="3"/>
-        <v>5.5312500000000001E-2</v>
+        <f>$C$2/B6</f>
+        <v>0.12407777777777779</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I10" si="5">(G6/2)+0.2347</f>
-        <v>0.30449375000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I6:I11" si="2">G6/2</f>
+        <v>4.9166666666666664E-2</v>
+      </c>
+      <c r="J6">
+        <f>(H6/2)+0.2347</f>
+        <v>0.29673888888888889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="4"/>
-        <v>91</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="2"/>
-        <v>2.0168969387755101E-2</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <f>B7*A7</f>
+        <v>64</v>
+      </c>
+      <c r="D7">
+        <f>($B$2/(A7+1))*($C$2/(A7+1))</f>
+        <v>1.2200981481481481E-2</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.12642857142857142</v>
-      </c>
+        <v>1.54418671875E-2</v>
+      </c>
+      <c r="F7" s="7"/>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.15952857142857144</v>
+        <v>0.110625</v>
       </c>
       <c r="H7">
-        <f t="shared" si="3"/>
-        <v>6.3214285714285709E-2</v>
+        <f>$C$2/B7</f>
+        <v>0.1395875</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
-        <v>0.3144642857142857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>5.5312500000000001E-2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J11" si="3">(H7/2)+0.2347</f>
+        <v>0.30449375000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="2"/>
-        <v>2.7452208333333335E-2</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8">
+        <f>B8*A8</f>
+        <v>49</v>
+      </c>
+      <c r="D8">
+        <f>($B$2/(A8+1))*($C$2/(A8+1))</f>
+        <v>1.54418671875E-2</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.14749999999999999</v>
-      </c>
+        <v>2.0168969387755101E-2</v>
+      </c>
+      <c r="F8" s="7"/>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.18611666666666668</v>
+        <v>0.12642857142857142</v>
       </c>
       <c r="H8">
+        <f>$C$2/B8</f>
+        <v>0.15952857142857144</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>6.3214285714285709E-2</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="3"/>
-        <v>7.3749999999999996E-2</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>0.32775833333333332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.3144642857142857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
-        <v>5</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="2"/>
-        <v>3.9531179999999999E-2</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8">
+        <f>B9*A9</f>
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <f>($B$2/(A9+1))*($C$2/(A9+1))</f>
+        <v>2.0168969387755101E-2</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.17699999999999999</v>
-      </c>
+        <v>2.7452208333333335E-2</v>
+      </c>
+      <c r="F9" s="7"/>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.22334000000000001</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="H9">
+        <f>$C$2/B9</f>
+        <v>0.18611666666666668</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>7.3749999999999996E-2</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="3"/>
-        <v>8.8499999999999995E-2</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>0.34637000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.32775833333333332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" s="1">
-        <v>4</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C10" s="8">
+        <f>B10*A10</f>
         <v>25</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="2"/>
-        <v>6.1767468749999999E-2</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10">
+      <c r="D10">
+        <f>($B$2/(A10+1))*($C$2/(A10+1))</f>
+        <v>2.7452208333333335E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.22125</v>
-      </c>
+        <v>3.9531179999999999E-2</v>
+      </c>
+      <c r="F10" s="7"/>
       <c r="G10">
         <f t="shared" si="1"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="H10">
+        <f>$C$2/B10</f>
+        <v>0.22334000000000001</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>0.34637000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="8">
+        <f>B11*A11</f>
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <f>($B$2/(A11+1))*($C$2/(A11+1))</f>
+        <v>3.9531179999999999E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.1767468749999999E-2</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.22125</v>
+      </c>
+      <c r="H11">
+        <f>$C$2/B11</f>
         <v>0.27917500000000001</v>
       </c>
-      <c r="H10">
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0.110625</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="3"/>
-        <v>0.110625</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
         <v>0.3742875</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
